--- a/assets/ingreso carga archivo.xlsx
+++ b/assets/ingreso carga archivo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\Proyectos\FlutterProjects\genesis_vera_tesis\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC4FBE65-E090-4844-9963-0BDC2B979AB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ACC4216-3D41-405E-BEEC-DEAAB95202D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="50">
   <si>
     <t>codigo</t>
   </si>
@@ -172,6 +172,9 @@
   </si>
   <si>
     <t>1.28</t>
+  </si>
+  <si>
+    <t>6373-7221</t>
   </si>
 </sst>
 </file>
@@ -508,12 +511,13 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -552,8 +556,8 @@
       <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F2">
-        <v>1372</v>
+      <c r="F2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -572,8 +576,8 @@
       <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="F3">
-        <v>1372</v>
+      <c r="F3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -592,8 +596,8 @@
       <c r="E4" t="s">
         <v>12</v>
       </c>
-      <c r="F4">
-        <v>1372</v>
+      <c r="F4" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -612,8 +616,8 @@
       <c r="E5" t="s">
         <v>12</v>
       </c>
-      <c r="F5">
-        <v>1373</v>
+      <c r="F5" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -632,8 +636,8 @@
       <c r="E6" t="s">
         <v>12</v>
       </c>
-      <c r="F6">
-        <v>1374</v>
+      <c r="F6" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -652,8 +656,8 @@
       <c r="E7" t="s">
         <v>12</v>
       </c>
-      <c r="F7">
-        <v>1375</v>
+      <c r="F7" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -672,8 +676,8 @@
       <c r="E8" t="s">
         <v>12</v>
       </c>
-      <c r="F8">
-        <v>1376</v>
+      <c r="F8" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -692,8 +696,8 @@
       <c r="E9" t="s">
         <v>12</v>
       </c>
-      <c r="F9">
-        <v>1377</v>
+      <c r="F9" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -712,8 +716,8 @@
       <c r="E10" t="s">
         <v>12</v>
       </c>
-      <c r="F10">
-        <v>1378</v>
+      <c r="F10" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -732,8 +736,8 @@
       <c r="E11" t="s">
         <v>12</v>
       </c>
-      <c r="F11">
-        <v>1379</v>
+      <c r="F11" t="s">
+        <v>49</v>
       </c>
       <c r="H11" s="1"/>
     </row>
@@ -753,8 +757,8 @@
       <c r="E12" t="s">
         <v>12</v>
       </c>
-      <c r="F12">
-        <v>1380</v>
+      <c r="F12" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -773,8 +777,8 @@
       <c r="E13" t="s">
         <v>12</v>
       </c>
-      <c r="F13">
-        <v>1381</v>
+      <c r="F13" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -793,8 +797,8 @@
       <c r="E14" t="s">
         <v>12</v>
       </c>
-      <c r="F14">
-        <v>1382</v>
+      <c r="F14" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -813,8 +817,8 @@
       <c r="E15" t="s">
         <v>12</v>
       </c>
-      <c r="F15">
-        <v>1383</v>
+      <c r="F15" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -833,8 +837,8 @@
       <c r="E16" t="s">
         <v>12</v>
       </c>
-      <c r="F16">
-        <v>1384</v>
+      <c r="F16" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -853,8 +857,8 @@
       <c r="E17" t="s">
         <v>12</v>
       </c>
-      <c r="F17">
-        <v>1385</v>
+      <c r="F17" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -873,8 +877,8 @@
       <c r="E18" t="s">
         <v>12</v>
       </c>
-      <c r="F18">
-        <v>1386</v>
+      <c r="F18" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -893,8 +897,8 @@
       <c r="E19" t="s">
         <v>12</v>
       </c>
-      <c r="F19">
-        <v>1387</v>
+      <c r="F19" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -913,8 +917,8 @@
       <c r="E20" t="s">
         <v>12</v>
       </c>
-      <c r="F20">
-        <v>1388</v>
+      <c r="F20" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -933,8 +937,8 @@
       <c r="E21" t="s">
         <v>12</v>
       </c>
-      <c r="F21">
-        <v>1389</v>
+      <c r="F21" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -953,8 +957,8 @@
       <c r="E22" t="s">
         <v>12</v>
       </c>
-      <c r="F22">
-        <v>1390</v>
+      <c r="F22" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
